--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2440285.777925954</v>
+        <v>-2443194.725997319</v>
       </c>
     </row>
     <row r="7">
@@ -665,55 +665,55 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>111.6812158682793</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>13.09783323005805</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>125.4713171199747</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>11.36529914368134</v>
+      </c>
+      <c r="S2" t="n">
+        <v>84.2064132387097</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>187.52558716632</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>187.52558716632</v>
-      </c>
-      <c r="H2" t="n">
-        <v>165.1725371760946</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>83.41747001683186</v>
+        <v>127.2378420788159</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -798,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553082</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845772</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>52.54128437557286</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>146.0893036811007</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>187.52558716632</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>260.2542077183965</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>335.2544961588322</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>12.58659989534475</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>311.6581577170898</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>147.1260835752739</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>211.2059571334993</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>299.4258530213857</v>
       </c>
       <c r="X5" t="n">
-        <v>335.2544961588312</v>
+        <v>335.2544961588322</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -984,13 +984,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>24.95061554910662</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.19999526577865</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.92812678230645</v>
       </c>
       <c r="S6" t="n">
-        <v>144.6894715620622</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>73.5510655461776</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.7726135285979</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>151.3947926746767</v>
       </c>
       <c r="I7" t="n">
-        <v>89.2742035777685</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>7.220715945510392</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>105.6328703766406</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,10 +1136,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>273.8550441994706</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>214.2348596940694</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1224,7 +1224,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.6668577520925</v>
+        <v>57.15962390506132</v>
       </c>
       <c r="U9" t="n">
         <v>225.8205739680685</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>39.68406334101258</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>90.02170846993621</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187867</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695685</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.752258470135</v>
@@ -1433,7 +1433,7 @@
         <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784672</v>
+        <v>369.7311006784702</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1582,10 +1582,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>147.6895341487369</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>20.25102067617329</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695625</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>27.0291980517616</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>82.47290449300898</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="18">
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T19" t="n">
-        <v>118.1224962516658</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>78.91051008678102</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2378,10 +2378,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>19.88691958258267</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,7 +2713,7 @@
         <v>155.5473326898975</v>
       </c>
       <c r="C28" t="n">
-        <v>142.962173606588</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
         <v>124.3308255261726</v>
@@ -2722,16 +2722,16 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308914</v>
+        <v>121.136400530893</v>
       </c>
       <c r="G28" t="n">
-        <v>141.239490800229</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652574</v>
+        <v>56.98118882652575</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
-        <v>261.899826897206</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317882</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.962173606588</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545313</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308914</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.239490800229</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652574</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808189</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="32">
@@ -3038,13 +3038,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,10 +3190,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>560.6825636487952</v>
+        <v>274.7256954177737</v>
       </c>
       <c r="C2" t="n">
-        <v>560.6825636487952</v>
+        <v>274.7256954177737</v>
       </c>
       <c r="D2" t="n">
-        <v>560.6825636487952</v>
+        <v>274.7256954177737</v>
       </c>
       <c r="E2" t="n">
-        <v>371.2627786323103</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="F2" t="n">
-        <v>371.2627786323103</v>
+        <v>154.9708857107125</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8429936158254</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678535</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079189</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
         <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985585</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>750.10234866528</v>
+        <v>738.6222485201471</v>
       </c>
       <c r="S2" t="n">
-        <v>750.10234866528</v>
+        <v>653.5652654507434</v>
       </c>
       <c r="T2" t="n">
-        <v>750.10234866528</v>
+        <v>653.5652654507434</v>
       </c>
       <c r="U2" t="n">
-        <v>750.10234866528</v>
+        <v>464.1454804342586</v>
       </c>
       <c r="V2" t="n">
-        <v>750.10234866528</v>
+        <v>464.1454804342586</v>
       </c>
       <c r="W2" t="n">
-        <v>750.10234866528</v>
+        <v>464.1454804342586</v>
       </c>
       <c r="X2" t="n">
-        <v>750.10234866528</v>
+        <v>464.1454804342586</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.6825636487952</v>
+        <v>274.7256954177737</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>581.8870116452119</v>
+        <v>192.7966468059545</v>
       </c>
       <c r="C3" t="n">
-        <v>407.433982364085</v>
+        <v>192.7966468059545</v>
       </c>
       <c r="D3" t="n">
-        <v>258.4995727028337</v>
+        <v>192.7966468059545</v>
       </c>
       <c r="E3" t="n">
-        <v>99.26211769737819</v>
+        <v>192.7966468059545</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="I3" t="n">
         <v>15.0020469733056</v>
@@ -4410,49 +4410,49 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
         <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>750.10234866528</v>
+        <v>722.9192922843279</v>
       </c>
       <c r="S3" t="n">
-        <v>750.10234866528</v>
+        <v>571.6362168389242</v>
       </c>
       <c r="T3" t="n">
-        <v>750.10234866528</v>
+        <v>571.6362168389242</v>
       </c>
       <c r="U3" t="n">
-        <v>750.10234866528</v>
+        <v>571.6362168389242</v>
       </c>
       <c r="V3" t="n">
-        <v>750.10234866528</v>
+        <v>571.6362168389242</v>
       </c>
       <c r="W3" t="n">
-        <v>750.10234866528</v>
+        <v>382.2164318224393</v>
       </c>
       <c r="X3" t="n">
-        <v>750.10234866528</v>
+        <v>192.7966468059545</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.10234866528</v>
+        <v>192.7966468059545</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.67250990818521</v>
+        <v>507.6105592290244</v>
       </c>
       <c r="C4" t="n">
-        <v>38.67250990818521</v>
+        <v>338.6743763011175</v>
       </c>
       <c r="D4" t="n">
-        <v>38.67250990818521</v>
+        <v>338.6743763011175</v>
       </c>
       <c r="E4" t="n">
-        <v>38.67250990818521</v>
+        <v>338.6743763011175</v>
       </c>
       <c r="F4" t="n">
-        <v>38.67250990818521</v>
+        <v>338.6743763011175</v>
       </c>
       <c r="G4" t="n">
-        <v>38.67250990818521</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="H4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884407</v>
+        <v>279.6026869745584</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830975</v>
+        <v>401.7138139340728</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242521</v>
+        <v>587.3641452287296</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608023</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="P4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846277</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846277</v>
+        <v>697.0303442455092</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846277</v>
+        <v>697.0303442455092</v>
       </c>
       <c r="T4" t="n">
-        <v>746.7254979846277</v>
+        <v>697.0303442455092</v>
       </c>
       <c r="U4" t="n">
-        <v>557.3057129681429</v>
+        <v>697.0303442455092</v>
       </c>
       <c r="V4" t="n">
-        <v>557.3057129681429</v>
+        <v>697.0303442455092</v>
       </c>
       <c r="W4" t="n">
-        <v>557.3057129681429</v>
+        <v>697.0303442455092</v>
       </c>
       <c r="X4" t="n">
-        <v>409.7407597549098</v>
+        <v>697.0303442455092</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.3209747384249</v>
+        <v>507.6105592290244</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46.47959770993498</v>
+        <v>699.9267228371291</v>
       </c>
       <c r="C5" t="n">
-        <v>46.47959770993498</v>
+        <v>699.9267228371291</v>
       </c>
       <c r="D5" t="n">
-        <v>46.47959770993498</v>
+        <v>361.2858176261873</v>
       </c>
       <c r="E5" t="n">
-        <v>46.47959770993498</v>
+        <v>361.2858176261873</v>
       </c>
       <c r="F5" t="n">
-        <v>39.5340969607315</v>
+        <v>354.3403168769839</v>
       </c>
       <c r="G5" t="n">
-        <v>26.8203596927065</v>
+        <v>341.6265796089589</v>
       </c>
       <c r="H5" t="n">
-        <v>26.8203596927065</v>
+        <v>26.82035969270658</v>
       </c>
       <c r="I5" t="n">
-        <v>26.8203596927065</v>
+        <v>26.82035969270658</v>
       </c>
       <c r="J5" t="n">
-        <v>75.80841166588709</v>
+        <v>75.80841166588732</v>
       </c>
       <c r="K5" t="n">
-        <v>199.9673209772224</v>
+        <v>199.9673209772231</v>
       </c>
       <c r="L5" t="n">
-        <v>390.8991887176417</v>
+        <v>390.8991887176431</v>
       </c>
       <c r="M5" t="n">
-        <v>635.0171176553346</v>
+        <v>635.0171176553365</v>
       </c>
       <c r="N5" t="n">
-        <v>887.6989382795095</v>
+        <v>887.6989382795119</v>
       </c>
       <c r="O5" t="n">
-        <v>1112.963955034618</v>
+        <v>1112.963955034621</v>
       </c>
       <c r="P5" t="n">
-        <v>1270.721434285792</v>
+        <v>1270.721434285795</v>
       </c>
       <c r="Q5" t="n">
-        <v>1341.017984635325</v>
+        <v>1341.017984635329</v>
       </c>
       <c r="R5" t="n">
-        <v>1341.017984635325</v>
+        <v>1341.017984635329</v>
       </c>
       <c r="S5" t="n">
-        <v>1192.405779003735</v>
+        <v>1341.017984635329</v>
       </c>
       <c r="T5" t="n">
-        <v>979.0664283638366</v>
+        <v>1341.017984635329</v>
       </c>
       <c r="U5" t="n">
-        <v>979.0664283638366</v>
+        <v>1341.017984635329</v>
       </c>
       <c r="V5" t="n">
-        <v>648.003541020266</v>
+        <v>1341.017984635329</v>
       </c>
       <c r="W5" t="n">
-        <v>648.003541020266</v>
+        <v>1038.567628048071</v>
       </c>
       <c r="X5" t="n">
-        <v>309.3626358093254</v>
+        <v>699.9267228371291</v>
       </c>
       <c r="Y5" t="n">
-        <v>309.3626358093254</v>
+        <v>699.9267228371291</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>509.4452536405403</v>
+        <v>633.8398100192123</v>
       </c>
       <c r="C6" t="n">
-        <v>334.9922243594133</v>
+        <v>459.3867807380853</v>
       </c>
       <c r="D6" t="n">
-        <v>186.057814698162</v>
+        <v>310.4523710768341</v>
       </c>
       <c r="E6" t="n">
-        <v>26.8203596927065</v>
+        <v>151.2149160713786</v>
       </c>
       <c r="F6" t="n">
-        <v>26.8203596927065</v>
+        <v>126.012274102584</v>
       </c>
       <c r="G6" t="n">
-        <v>26.8203596927065</v>
+        <v>126.012274102584</v>
       </c>
       <c r="H6" t="n">
-        <v>26.8203596927065</v>
+        <v>26.82035969270658</v>
       </c>
       <c r="I6" t="n">
-        <v>26.8203596927065</v>
+        <v>26.82035969270658</v>
       </c>
       <c r="J6" t="n">
-        <v>37.1794608891868</v>
+        <v>37.17946088918705</v>
       </c>
       <c r="K6" t="n">
-        <v>133.0396395322589</v>
+        <v>133.0396395322594</v>
       </c>
       <c r="L6" t="n">
-        <v>376.6448307987346</v>
+        <v>308.2580207538313</v>
       </c>
       <c r="M6" t="n">
-        <v>708.5467819959775</v>
+        <v>532.0864752945499</v>
       </c>
       <c r="N6" t="n">
-        <v>952.707954621783</v>
+        <v>821.9459804215376</v>
       </c>
       <c r="O6" t="n">
-        <v>1153.847931618778</v>
+        <v>1153.847931618782</v>
       </c>
       <c r="P6" t="n">
-        <v>1295.9474297292</v>
+        <v>1295.947429729204</v>
       </c>
       <c r="Q6" t="n">
-        <v>1341.017984635325</v>
+        <v>1341.017984635329</v>
       </c>
       <c r="R6" t="n">
-        <v>1341.017984635325</v>
+        <v>1330.98957374411</v>
       </c>
       <c r="S6" t="n">
-        <v>1194.867003259504</v>
+        <v>1330.98957374411</v>
       </c>
       <c r="T6" t="n">
-        <v>1194.867003259504</v>
+        <v>1330.98957374411</v>
       </c>
       <c r="U6" t="n">
-        <v>1120.572997657305</v>
+        <v>1330.98957374411</v>
       </c>
       <c r="V6" t="n">
-        <v>885.4208894255621</v>
+        <v>1095.837465512368</v>
       </c>
       <c r="W6" t="n">
-        <v>885.4208894255621</v>
+        <v>841.6001087841662</v>
       </c>
       <c r="X6" t="n">
-        <v>885.4208894255621</v>
+        <v>841.6001087841662</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.6605906606082</v>
+        <v>633.8398100192123</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>436.0491452428163</v>
+        <v>800.4149110427044</v>
       </c>
       <c r="C7" t="n">
-        <v>267.1129623149094</v>
+        <v>800.4149110427044</v>
       </c>
       <c r="D7" t="n">
-        <v>116.9963229025737</v>
+        <v>650.2982716303686</v>
       </c>
       <c r="E7" t="n">
-        <v>116.9963229025737</v>
+        <v>502.3851780479755</v>
       </c>
       <c r="F7" t="n">
-        <v>116.9963229025737</v>
+        <v>355.4952305500652</v>
       </c>
       <c r="G7" t="n">
-        <v>116.9963229025737</v>
+        <v>187.038045167643</v>
       </c>
       <c r="H7" t="n">
-        <v>116.9963229025737</v>
+        <v>34.1140121629191</v>
       </c>
       <c r="I7" t="n">
-        <v>26.8203596927065</v>
+        <v>34.1140121629191</v>
       </c>
       <c r="J7" t="n">
-        <v>26.8203596927065</v>
+        <v>26.82035969270658</v>
       </c>
       <c r="K7" t="n">
-        <v>144.9100005356777</v>
+        <v>144.910000535678</v>
       </c>
       <c r="L7" t="n">
-        <v>351.5505185772902</v>
+        <v>351.5505185772906</v>
       </c>
       <c r="M7" t="n">
-        <v>579.8130948081284</v>
+        <v>579.8130948081291</v>
       </c>
       <c r="N7" t="n">
-        <v>808.0827135899945</v>
+        <v>808.0827135899954</v>
       </c>
       <c r="O7" t="n">
-        <v>1002.910357528983</v>
+        <v>1002.910357528984</v>
       </c>
       <c r="P7" t="n">
-        <v>1146.098382205446</v>
+        <v>1146.098382205447</v>
       </c>
       <c r="Q7" t="n">
-        <v>1161.799268315903</v>
+        <v>1161.799268315905</v>
       </c>
       <c r="R7" t="n">
-        <v>1161.799268315903</v>
+        <v>1161.799268315905</v>
       </c>
       <c r="S7" t="n">
-        <v>1161.799268315903</v>
+        <v>1161.799268315905</v>
       </c>
       <c r="T7" t="n">
-        <v>1161.799268315903</v>
+        <v>1161.799268315905</v>
       </c>
       <c r="U7" t="n">
-        <v>1161.799268315903</v>
+        <v>1161.799268315905</v>
       </c>
       <c r="V7" t="n">
-        <v>907.1147801100166</v>
+        <v>907.1147801100182</v>
       </c>
       <c r="W7" t="n">
-        <v>617.697610073056</v>
+        <v>800.4149110427044</v>
       </c>
       <c r="X7" t="n">
-        <v>617.697610073056</v>
+        <v>800.4149110427044</v>
       </c>
       <c r="Y7" t="n">
-        <v>617.697610073056</v>
+        <v>800.4149110427044</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1175.321806688892</v>
+        <v>707.889112251039</v>
       </c>
       <c r="C8" t="n">
-        <v>806.35928974848</v>
+        <v>338.9265953106273</v>
       </c>
       <c r="D8" t="n">
-        <v>448.0935911417295</v>
+        <v>62.30533854348528</v>
       </c>
       <c r="E8" t="n">
-        <v>62.30533854348519</v>
+        <v>62.30533854348528</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428172</v>
+        <v>55.35983779428181</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.5078184301905</v>
       </c>
       <c r="K8" t="n">
         <v>366.8168396232727</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711874</v>
+        <v>669.5878927711881</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545599</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="V8" t="n">
-        <v>2168.459826904653</v>
+        <v>1837.396939561087</v>
       </c>
       <c r="W8" t="n">
-        <v>2168.459826904653</v>
+        <v>1484.628284290972</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.060978728825</v>
+        <v>1484.628284290972</v>
       </c>
       <c r="Y8" t="n">
-        <v>1561.921646753013</v>
+        <v>1094.488952315161</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.5286484590418</v>
+        <v>809.404642243926</v>
       </c>
       <c r="C9" t="n">
-        <v>498.0756191779149</v>
+        <v>634.951612962799</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166636</v>
+        <v>486.0172033015477</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112081</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809306</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J9" t="n">
-        <v>214.3836900926279</v>
+        <v>89.55356510562342</v>
       </c>
       <c r="K9" t="n">
-        <v>371.4749568374566</v>
+        <v>508.4654164929053</v>
       </c>
       <c r="L9" t="n">
-        <v>629.0260923974441</v>
+        <v>766.0165520528933</v>
       </c>
       <c r="M9" t="n">
-        <v>948.9329878659534</v>
+        <v>1085.923447521403</v>
       </c>
       <c r="N9" t="n">
-        <v>1291.715511860585</v>
+        <v>1428.705971516035</v>
       </c>
       <c r="O9" t="n">
-        <v>1583.074758115151</v>
+        <v>1720.065217770601</v>
       </c>
       <c r="P9" t="n">
-        <v>1867.009313401722</v>
+        <v>2074.985828260217</v>
       </c>
       <c r="Q9" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R9" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S9" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T9" t="n">
-        <v>1973.846839276277</v>
+        <v>2110.722833061161</v>
       </c>
       <c r="U9" t="n">
-        <v>1745.745249409541</v>
+        <v>1882.621243194425</v>
       </c>
       <c r="V9" t="n">
-        <v>1510.593141177798</v>
+        <v>1647.469134962682</v>
       </c>
       <c r="W9" t="n">
-        <v>1256.355784449597</v>
+        <v>1393.231778234481</v>
       </c>
       <c r="X9" t="n">
-        <v>1048.504284244064</v>
+        <v>1185.380278028948</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791098</v>
+        <v>977.6199792639941</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2591440360034</v>
+        <v>657.2250599586392</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2591440360034</v>
+        <v>488.2888770307324</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2591440360034</v>
+        <v>338.1722376183966</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2591440360034</v>
+        <v>190.2591440360035</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J10" t="n">
-        <v>58.69630920174229</v>
+        <v>58.69630920174252</v>
       </c>
       <c r="K10" t="n">
-        <v>213.7203003246704</v>
+        <v>213.7203003246709</v>
       </c>
       <c r="L10" t="n">
-        <v>467.6240706728881</v>
+        <v>467.624070672889</v>
       </c>
       <c r="M10" t="n">
-        <v>745.7191196640783</v>
+        <v>745.7191196640795</v>
       </c>
       <c r="N10" t="n">
-        <v>1022.636306385108</v>
+        <v>1022.63630638511</v>
       </c>
       <c r="O10" t="n">
-        <v>1262.397853152952</v>
+        <v>1262.397853152954</v>
       </c>
       <c r="P10" t="n">
-        <v>1444.034594271086</v>
+        <v>1444.034594271088</v>
       </c>
       <c r="Q10" t="n">
-        <v>1486.355378693647</v>
+        <v>1486.355378693649</v>
       </c>
       <c r="R10" t="n">
-        <v>1446.270466227978</v>
+        <v>1486.355378693649</v>
       </c>
       <c r="S10" t="n">
-        <v>1247.090980612204</v>
+        <v>1486.355378693649</v>
       </c>
       <c r="T10" t="n">
-        <v>1023.487123304827</v>
+        <v>1486.355378693649</v>
       </c>
       <c r="U10" t="n">
-        <v>734.3608022788509</v>
+        <v>1395.424360037147</v>
       </c>
       <c r="V10" t="n">
-        <v>479.676314072964</v>
+        <v>1395.424360037147</v>
       </c>
       <c r="W10" t="n">
-        <v>190.2591440360034</v>
+        <v>1106.007190000187</v>
       </c>
       <c r="X10" t="n">
-        <v>190.2591440360034</v>
+        <v>878.0176391021694</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.2591440360034</v>
+        <v>657.2250599586392</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,7 +5027,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362687</v>
@@ -5066,19 +5066,19 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5115,22 +5115,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190824</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429802</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429802</v>
@@ -5230,19 +5230,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1573.595244679635</v>
+        <v>1667.930277414127</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.178074642674</v>
+        <v>1378.513107377167</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>1150.523556479149</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>929.7309773356194</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,10 +5264,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
@@ -5303,10 +5303,10 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466574</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D16" t="n">
-        <v>317.6151975578601</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578601</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2363.657119445908</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2144.05565446885</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1854.980427813048</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1600.295939607161</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1310.8787695702</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1082.889218672183</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>862.0966395286528</v>
       </c>
     </row>
     <row r="17">
@@ -5513,25 +5513,25 @@
         <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190824</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>2077.746892708107</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1788.671666052305</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1533.987177846418</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1244.570007809457</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1016.58045691144</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>1016.58045691144</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5747,16 +5747,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.55866301478</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.4550657171305</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>564.5188827892237</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5987,10 +5987,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6026,7 +6026,7 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>802.9288273958734</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>782.8410298377091</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
         <v>484.8112968429803</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304621</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369643</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.5772922261132</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6218,43 +6218,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319336</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656829</v>
       </c>
       <c r="D28" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150036</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942668</v>
       </c>
       <c r="F28" t="n">
         <v>411.2214559580112</v>
@@ -6376,19 +6376,19 @@
         <v>268.5553036345475</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>198.0944824954151</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380732</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979287</v>
@@ -6415,19 +6415,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,52 +6449,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,16 +6534,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6552,13 +6552,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,52 +6595,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319338</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656832</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150038</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
         <v>2596.781734931274</v>
@@ -6652,19 +6652,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6883,13 +6883,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6898,10 +6898,10 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,55 +6923,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,16 +7117,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,52 +7160,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319316</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565681</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150015</v>
+        <v>656.9646031150029</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942647</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580106</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345468</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384016</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7333,49 +7333,49 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,64 +7397,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,52 +7543,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150031</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494266</v>
+        <v>533.5814564942663</v>
       </c>
       <c r="F43" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580123</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
@@ -7603,13 +7603,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7628,28 +7628,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,22 +7658,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -7834,22 +7834,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457085</v>
+        <v>107.2331895657667</v>
       </c>
       <c r="N4" t="n">
-        <v>75.41988959484686</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>44.96795805497982</v>
+        <v>44.96795805497962</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8298,16 +8298,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>69.07758590394369</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>109.1651481379037</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>46.15993181937554</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>132.0828022224733</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>70.12741386431446</v>
+        <v>141.8304999279949</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721433</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059418</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>225.572246063738</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>151.7212889301276</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22592,28 +22592,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368131</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>74.5693999513434</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871038</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>76.2672326597381</v>
+        <v>198.7123514897336</v>
       </c>
     </row>
     <row r="3">
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>231.8866226476547</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>121.5862749664508</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>98.55338150863561</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T19" t="n">
-        <v>99.2829540756225</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>69.70496293143134</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>147.3599015160452</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-1.401293908503125e-12</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1119034.200603698</v>
+        <v>1119034.200603697</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1385567.986703281</v>
+        <v>1385567.986703282</v>
       </c>
     </row>
     <row r="6">
@@ -26314,16 +26314,16 @@
         <v>32460.9111614366</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321418</v>
       </c>
       <c r="D2" t="n">
         <v>41052.08849321417</v>
       </c>
       <c r="E2" t="n">
-        <v>40357.32998450032</v>
+        <v>40357.32998450033</v>
       </c>
       <c r="F2" t="n">
-        <v>40357.32998450033</v>
+        <v>40357.32998450031</v>
       </c>
       <c r="G2" t="n">
         <v>40357.32998450031</v>
@@ -26341,19 +26341,19 @@
         <v>41052.08849321419</v>
       </c>
       <c r="L2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="M2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="N2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="P2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.08849321419</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>163527.4916130701</v>
+        <v>163527.4916130713</v>
       </c>
       <c r="D3" t="n">
-        <v>216759.9319010283</v>
+        <v>216759.9319010286</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742654</v>
+        <v>601443.2075742643</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.114244742689309e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>68492.66272217644</v>
       </c>
       <c r="K3" t="n">
-        <v>38020.69384958458</v>
+        <v>38020.6938495849</v>
       </c>
       <c r="L3" t="n">
-        <v>52354.52082544668</v>
+        <v>52354.52082544665</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515981</v>
+        <v>157146.3805515978</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>180097.9534362799</v>
       </c>
       <c r="C4" t="n">
-        <v>234656.7417588605</v>
+        <v>234656.7417588602</v>
       </c>
       <c r="D4" t="n">
-        <v>173824.4120003228</v>
+        <v>173824.4120003225</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685495</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685497</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685503</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685503</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="J4" t="n">
-        <v>22207.61133994854</v>
+        <v>22207.61133994851</v>
       </c>
       <c r="K4" t="n">
-        <v>22207.61133994858</v>
+        <v>22207.61133994851</v>
       </c>
       <c r="L4" t="n">
-        <v>22207.61133994854</v>
+        <v>22207.61133994851</v>
       </c>
       <c r="M4" t="n">
+        <v>22207.61133994852</v>
+      </c>
+      <c r="N4" t="n">
         <v>22207.61133994853</v>
       </c>
-      <c r="N4" t="n">
-        <v>22207.61133994851</v>
-      </c>
       <c r="O4" t="n">
-        <v>22207.61133994858</v>
+        <v>22207.61133994853</v>
       </c>
       <c r="P4" t="n">
-        <v>22207.61133994854</v>
+        <v>22207.61133994846</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>68740.00864417477</v>
+        <v>68740.00864417484</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-795979.7452073023</v>
+        <v>-796409.3040738911</v>
       </c>
       <c r="C6" t="n">
-        <v>-425872.1535228912</v>
+        <v>-425872.1535228922</v>
       </c>
       <c r="D6" t="n">
         <v>-434731.3372640092</v>
       </c>
       <c r="E6" t="n">
-        <v>-676425.1594905271</v>
+        <v>-676459.8974159616</v>
       </c>
       <c r="F6" t="n">
-        <v>-74981.95191626177</v>
+        <v>-75016.68984169762</v>
       </c>
       <c r="G6" t="n">
-        <v>-74981.95191626193</v>
+        <v>-75016.68984169755</v>
       </c>
       <c r="H6" t="n">
-        <v>-74981.95191626185</v>
+        <v>-75016.68984169755</v>
       </c>
       <c r="I6" t="n">
-        <v>-74981.95191626187</v>
+        <v>-75016.68984169759</v>
       </c>
       <c r="J6" t="n">
         <v>-152812.3014228262</v>
       </c>
       <c r="K6" t="n">
-        <v>-122340.3325502344</v>
+        <v>-122340.3325502346</v>
       </c>
       <c r="L6" t="n">
         <v>-136674.1595260964</v>
       </c>
       <c r="M6" t="n">
-        <v>-241466.0192522478</v>
+        <v>-241466.0192522475</v>
       </c>
       <c r="N6" t="n">
         <v>-84319.63870064975</v>
       </c>
       <c r="O6" t="n">
-        <v>-103747.3566942816</v>
+        <v>-103747.3566942815</v>
       </c>
       <c r="P6" t="n">
-        <v>-84319.63870064977</v>
+        <v>-84319.6387006497</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203979</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="M2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203971</v>
-      </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>675.6392329228365</v>
+        <v>675.6392329228373</v>
       </c>
       <c r="D3" t="n">
-        <v>853.710664537684</v>
+        <v>853.710664537685</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>335.2544961588312</v>
+        <v>335.2544961588322</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26811,25 +26811,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26917,10 +26917,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>127.1692920099318</v>
+        <v>127.1692920099327</v>
       </c>
       <c r="D3" t="n">
-        <v>178.0714316148475</v>
+        <v>178.0714316148477</v>
       </c>
       <c r="E3" t="n">
-        <v>514.26483580399</v>
+        <v>514.2648358039889</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>147.7289089925112</v>
+        <v>147.7289089925123</v>
       </c>
       <c r="D4" t="n">
-        <v>206.860460567332</v>
+        <v>206.8604605673321</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.5933313734843</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="K4" t="n">
-        <v>147.728908992511</v>
+        <v>147.7289089925123</v>
       </c>
       <c r="L4" t="n">
-        <v>206.8604605673322</v>
+        <v>206.8604605673321</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.5933313734843</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>147.7289089925112</v>
+        <v>147.7289089925123</v>
       </c>
       <c r="L4" t="n">
-        <v>206.860460567332</v>
+        <v>206.8604605673321</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.5933313734843</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>270.2491542039825</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.4451188299955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,19 +27455,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>61.65174237655202</v>
+        <v>17.83137031456801</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27476,7 +27476,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714237</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27518,10 +27518,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459965</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715752</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>80.28108523511752</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27591,7 +27591,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713027</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>79.62035170793641</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.05906618577478</v>
+        <v>31.05906618577484</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>122.4796339450841</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>19.42854546185072</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>311.6581577170898</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>105.7619939834404</v>
+        <v>105.7619939834403</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>147.1260835752738</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>211.2059571334993</v>
       </c>
       <c r="U5" t="n">
         <v>251.1283618982533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>49.81511569602731</v>
       </c>
       <c r="X5" t="n">
-        <v>34.47660451963782</v>
+        <v>34.47660451963679</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>120.1185968442773</v>
       </c>
       <c r="G6" t="n">
         <v>135.8902554169238</v>
       </c>
       <c r="H6" t="n">
-        <v>98.19999526577867</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>39.36108588495972</v>
+        <v>39.36108588495966</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.928126782306549</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>144.6894715620622</v>
       </c>
       <c r="T6" t="n">
-        <v>194.3070640244812</v>
+        <v>194.3070640244811</v>
       </c>
       <c r="U6" t="n">
-        <v>152.2947072093836</v>
+        <v>225.8457727555612</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.7726135285979</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>151.3947926746767</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>29.53668802967431</v>
+        <v>118.8108916074428</v>
       </c>
       <c r="J7" t="n">
-        <v>7.220715945510506</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.5112332454261</v>
+        <v>122.511233245426</v>
       </c>
       <c r="S7" t="n">
         <v>202.7838044383972</v>
@@ -27834,7 +27834,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>180.8901279599503</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,10 +27856,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>80.82799742121239</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708302</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092505</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>155.4962409843997</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>26.17372043046394</v>
+        <v>26.17372043046387</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27983,7 +27983,7 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0.09636055867130722</v>
+        <v>135.6035944057024</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>68.38878792462603</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>196.2133493457805</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-1.364520294897987e-13</v>
       </c>
     </row>
     <row r="18">
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="29">
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="32">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31042,13 +31042,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
         <v>280.4720934528639</v>
@@ -31060,25 +31060,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31124,7 +31124,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,16 +31133,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
@@ -31151,16 +31151,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31227,19 +31227,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.716137619790295</v>
+        <v>2.716137619790299</v>
       </c>
       <c r="H5" t="n">
-        <v>27.81664439867737</v>
+        <v>27.8166443986774</v>
       </c>
       <c r="I5" t="n">
-        <v>104.7138955869655</v>
+        <v>104.7138955869656</v>
       </c>
       <c r="J5" t="n">
-        <v>230.5287853076768</v>
+        <v>230.5287853076771</v>
       </c>
       <c r="K5" t="n">
-        <v>345.5028907534001</v>
+        <v>345.5028907534005</v>
       </c>
       <c r="L5" t="n">
-        <v>428.6268874350574</v>
+        <v>428.6268874350579</v>
       </c>
       <c r="M5" t="n">
-        <v>476.9299998310031</v>
+        <v>476.9299998310036</v>
       </c>
       <c r="N5" t="n">
-        <v>484.6472258432323</v>
+        <v>484.6472258432329</v>
       </c>
       <c r="O5" t="n">
-        <v>457.6386323864425</v>
+        <v>457.6386323864431</v>
       </c>
       <c r="P5" t="n">
-        <v>390.5839848978695</v>
+        <v>390.58398489787</v>
       </c>
       <c r="Q5" t="n">
-        <v>293.3123063891295</v>
+        <v>293.3123063891298</v>
       </c>
       <c r="R5" t="n">
-        <v>170.6175797591523</v>
+        <v>170.6175797591525</v>
       </c>
       <c r="S5" t="n">
-        <v>61.89398601097142</v>
+        <v>61.8939860109715</v>
       </c>
       <c r="T5" t="n">
-        <v>11.88989243063202</v>
+        <v>11.88989243063204</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2172910095832236</v>
+        <v>0.2172910095832239</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.453261746286856</v>
+        <v>1.453261746286858</v>
       </c>
       <c r="H6" t="n">
-        <v>14.03544897071779</v>
+        <v>14.03544897071781</v>
       </c>
       <c r="I6" t="n">
-        <v>50.03554696645536</v>
+        <v>50.03554696645541</v>
       </c>
       <c r="J6" t="n">
-        <v>137.30136524897</v>
+        <v>137.3013652489702</v>
       </c>
       <c r="K6" t="n">
-        <v>234.6699022501894</v>
+        <v>234.6699022501897</v>
       </c>
       <c r="L6" t="n">
-        <v>315.5426436400474</v>
+        <v>315.5426436400478</v>
       </c>
       <c r="M6" t="n">
-        <v>368.2233819429459</v>
+        <v>368.2233819429463</v>
       </c>
       <c r="N6" t="n">
-        <v>377.9691591801065</v>
+        <v>377.9691591801069</v>
       </c>
       <c r="O6" t="n">
-        <v>345.7679383808029</v>
+        <v>345.7679383808033</v>
       </c>
       <c r="P6" t="n">
-        <v>277.5092539905138</v>
+        <v>277.5092539905141</v>
       </c>
       <c r="Q6" t="n">
-        <v>185.5075871225117</v>
+        <v>185.5075871225119</v>
       </c>
       <c r="R6" t="n">
-        <v>90.22970737033658</v>
+        <v>90.22970737033668</v>
       </c>
       <c r="S6" t="n">
-        <v>26.99369954177557</v>
+        <v>26.99369954177561</v>
       </c>
       <c r="T6" t="n">
-        <v>5.857664670340439</v>
+        <v>5.857664670340446</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09560932541360899</v>
+        <v>0.0956093254136091</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.218365829860853</v>
+        <v>1.218365829860854</v>
       </c>
       <c r="H7" t="n">
-        <v>10.83237983276286</v>
+        <v>10.83237983276287</v>
       </c>
       <c r="I7" t="n">
-        <v>36.63958331981547</v>
+        <v>36.63958331981551</v>
       </c>
       <c r="J7" t="n">
-        <v>86.13846417116227</v>
+        <v>86.13846417116238</v>
       </c>
       <c r="K7" t="n">
-        <v>141.5519573238336</v>
+        <v>141.5519573238337</v>
       </c>
       <c r="L7" t="n">
-        <v>181.1377707413126</v>
+        <v>181.1377707413128</v>
       </c>
       <c r="M7" t="n">
-        <v>190.984381857188</v>
+        <v>190.9843818571882</v>
       </c>
       <c r="N7" t="n">
-        <v>186.4432001277068</v>
+        <v>186.443200127707</v>
       </c>
       <c r="O7" t="n">
-        <v>172.2104720243322</v>
+        <v>172.2104720243324</v>
       </c>
       <c r="P7" t="n">
-        <v>147.3558090951707</v>
+        <v>147.3558090951709</v>
       </c>
       <c r="Q7" t="n">
-        <v>102.0215241713483</v>
+        <v>102.0215241713484</v>
       </c>
       <c r="R7" t="n">
-        <v>54.78215813174342</v>
+        <v>54.78215813174348</v>
       </c>
       <c r="S7" t="n">
-        <v>21.23279359857503</v>
+        <v>21.23279359857506</v>
       </c>
       <c r="T7" t="n">
-        <v>5.20574490940546</v>
+        <v>5.205744909405466</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06645631799241022</v>
+        <v>0.06645631799241029</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258716</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840425</v>
+        <v>541.5957615840432</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934777</v>
+        <v>602.6296390934785</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839015</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662297</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928394</v>
+        <v>370.6176784928399</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699489</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206619</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095114</v>
+        <v>63.22291242095121</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616797</v>
+        <v>398.7070419616802</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730377</v>
+        <v>465.2723121730382</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152842</v>
+        <v>477.5866858152848</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884504</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475631</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053858</v>
+        <v>34.10815721053862</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057842</v>
+        <v>7.401510384057851</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017474</v>
+        <v>46.2963094801748</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001568</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368735</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282505</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420138</v>
+        <v>235.5821576420141</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153088</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978874</v>
+        <v>6.577770693978882</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419862</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>405.637736314577</v>
+        <v>357.9244589488883</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
@@ -32072,7 +32072,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,22 +32084,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32309,7 +32309,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,19 +32321,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>339.9772972286967</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,7 +32546,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32558,19 +32558,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>405.637736314577</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,16 +32795,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>575.5951359912046</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>491.1355220041058</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>357.9244589488886</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>92.63945645062401</v>
       </c>
       <c r="L4" t="n">
         <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
+        <v>123.3445726863782</v>
+      </c>
+      <c r="N4" t="n">
         <v>187.52558716632</v>
-      </c>
-      <c r="N4" t="n">
-        <v>99.08507489005515</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469473</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>49.48288078099051</v>
+        <v>49.4828807809908</v>
       </c>
       <c r="K5" t="n">
-        <v>125.4130397084195</v>
+        <v>125.4130397084199</v>
       </c>
       <c r="L5" t="n">
-        <v>192.8604724650702</v>
+        <v>192.8604724650707</v>
       </c>
       <c r="M5" t="n">
-        <v>246.5837666037304</v>
+        <v>246.5837666037309</v>
       </c>
       <c r="N5" t="n">
-        <v>255.2341622466414</v>
+        <v>255.234162246642</v>
       </c>
       <c r="O5" t="n">
-        <v>227.5404209647558</v>
+        <v>227.5404209647564</v>
       </c>
       <c r="P5" t="n">
-        <v>159.3509891426</v>
+        <v>159.3509891426004</v>
       </c>
       <c r="Q5" t="n">
-        <v>71.00661651468002</v>
+        <v>71.00661651468036</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>10.46373858230334</v>
+        <v>10.46373858230351</v>
       </c>
       <c r="K6" t="n">
-        <v>96.82846327583039</v>
+        <v>96.82846327583067</v>
       </c>
       <c r="L6" t="n">
-        <v>246.0658497641169</v>
+        <v>176.9882638601736</v>
       </c>
       <c r="M6" t="n">
-        <v>335.2544961588312</v>
+        <v>226.089348020928</v>
       </c>
       <c r="N6" t="n">
-        <v>246.6274470967732</v>
+        <v>292.7873789161491</v>
       </c>
       <c r="O6" t="n">
-        <v>203.1716939363585</v>
+        <v>335.2544961588322</v>
       </c>
       <c r="P6" t="n">
-        <v>143.5348465761836</v>
+        <v>143.5348465761838</v>
       </c>
       <c r="Q6" t="n">
-        <v>45.52581303649015</v>
+        <v>45.52581303649038</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>119.2824654979507</v>
+        <v>119.2824654979509</v>
       </c>
       <c r="L7" t="n">
-        <v>208.7277960016287</v>
+        <v>208.727796001629</v>
       </c>
       <c r="M7" t="n">
-        <v>230.5682588190286</v>
+        <v>230.5682588190288</v>
       </c>
       <c r="N7" t="n">
-        <v>230.5753725069354</v>
+        <v>230.5753725069356</v>
       </c>
       <c r="O7" t="n">
-        <v>196.7955999383719</v>
+        <v>196.7955999383721</v>
       </c>
       <c r="P7" t="n">
-        <v>144.6343683600642</v>
+        <v>144.6343683600644</v>
       </c>
       <c r="Q7" t="n">
-        <v>15.85948091965393</v>
+        <v>15.85948091965405</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142394</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808905</v>
+        <v>216.473758780891</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140553</v>
+        <v>305.829346614056</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866205</v>
+        <v>372.2834058662058</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873105</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109601</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>172.7419126813483</v>
+        <v>46.65087734093967</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>423.1432842295777</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>260.152662181806</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510194</v>
+        <v>323.1382782510199</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440065</v>
       </c>
       <c r="P9" t="n">
-        <v>286.8025810975473</v>
+        <v>358.5056671612282</v>
       </c>
       <c r="Q9" t="n">
-        <v>304.4954681847781</v>
+        <v>94.41818044892932</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>15.48193198348407</v>
+        <v>15.48193198348422</v>
       </c>
       <c r="K10" t="n">
-        <v>156.5898900231597</v>
+        <v>156.58989002316</v>
       </c>
       <c r="L10" t="n">
-        <v>256.4684548971896</v>
+        <v>256.46845489719</v>
       </c>
       <c r="M10" t="n">
-        <v>280.9040898900911</v>
+        <v>280.9040898900914</v>
       </c>
       <c r="N10" t="n">
-        <v>279.7143300212424</v>
+        <v>279.7143300212427</v>
       </c>
       <c r="O10" t="n">
-        <v>242.1833805735793</v>
+        <v>242.1833805735795</v>
       </c>
       <c r="P10" t="n">
-        <v>183.4714556748827</v>
+        <v>183.4714556748829</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.7482670934959</v>
+        <v>42.74826709349604</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,13 +35495,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312436</v>
+        <v>226.582746865555</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35732,22 +35732,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,19 +35969,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>197.8432633066783</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36206,19 +36206,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>274.2960242312436</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,16 +36443,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>433.4611020691863</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>349.0014880820875</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,10 +36753,10 @@
         <v>105.3311307549932</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016748</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111713</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930849</v>
@@ -36768,7 +36768,7 @@
         <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986648</v>
       </c>
       <c r="Q28" t="n">
         <v>144.6869047919382</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,22 +36914,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>226.5827468655553</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
         <v>288.6172359016747</v>
@@ -36999,7 +36999,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
         <v>397.5465471980852</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919382</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,16 +37388,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980852</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,16 +37625,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,16 +37862,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016747</v>
@@ -37947,7 +37947,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
         <v>397.5465471980852</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
